--- a/data-raw/parker.orange.xlsx
+++ b/data-raw/parker.orange.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39124CD-1D76-44C0-9EC2-54281F274630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="24" windowWidth="15168" windowHeight="6456" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="4000" yWindow="2960" windowWidth="7590" windowHeight="8130" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1921" sheetId="4" r:id="rId1"/>
@@ -55,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -105,14 +111,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -150,7 +159,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -222,7 +231,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -395,16 +404,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="10.8" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.90625" defaultRowHeight="10.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -437,7 +446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -466,7 +475,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -495,7 +504,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -524,7 +533,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>8</v>
       </c>
@@ -553,7 +562,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>10</v>
       </c>
@@ -582,7 +591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>12</v>
       </c>
@@ -611,7 +620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>14</v>
       </c>
@@ -642,7 +651,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>16</v>
       </c>
@@ -673,7 +682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>18</v>
       </c>
@@ -704,7 +713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>20</v>
       </c>
@@ -735,7 +744,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>22</v>
       </c>
@@ -768,7 +777,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>24</v>
       </c>
@@ -799,7 +808,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>26</v>
       </c>
@@ -830,7 +839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>28</v>
       </c>
@@ -861,7 +870,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>30</v>
       </c>
@@ -892,7 +901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>32</v>
       </c>
@@ -925,7 +934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>34</v>
       </c>
@@ -956,7 +965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>36</v>
       </c>
@@ -989,7 +998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>38</v>
       </c>
@@ -1022,7 +1031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>40</v>
       </c>
@@ -1055,7 +1064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>42</v>
       </c>
@@ -1088,7 +1097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>44</v>
       </c>
@@ -1119,7 +1128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>46</v>
       </c>
@@ -1142,7 +1151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>48</v>
       </c>
@@ -1165,7 +1174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>50</v>
       </c>
@@ -1188,7 +1197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>52</v>
       </c>
@@ -1211,7 +1220,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>54</v>
       </c>
@@ -1237,19 +1246,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="10.8" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.90625" defaultRowHeight="10.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="3.88671875" style="1"/>
+    <col min="1" max="16384" width="3.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1281,7 +1290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -1307,7 +1316,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -1333,7 +1342,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -1359,7 +1368,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>8</v>
       </c>
@@ -1385,7 +1394,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>10</v>
       </c>
@@ -1411,7 +1420,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>12</v>
       </c>
@@ -1437,7 +1446,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>14</v>
       </c>
@@ -1466,7 +1475,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>16</v>
       </c>
@@ -1495,7 +1504,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>18</v>
       </c>
@@ -1524,7 +1533,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>20</v>
       </c>
@@ -1553,7 +1562,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>22</v>
       </c>
@@ -1585,7 +1594,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>24</v>
       </c>
@@ -1614,7 +1623,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>26</v>
       </c>
@@ -1643,7 +1652,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>28</v>
       </c>
@@ -1672,7 +1681,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>30</v>
       </c>
@@ -1701,7 +1710,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>32</v>
       </c>
@@ -1733,7 +1742,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>34</v>
       </c>
@@ -1762,7 +1771,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>36</v>
       </c>
@@ -1794,7 +1803,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>38</v>
       </c>
@@ -1826,7 +1835,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>40</v>
       </c>
@@ -1858,7 +1867,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>42</v>
       </c>
@@ -1890,7 +1899,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44</v>
       </c>
@@ -1919,7 +1928,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>46</v>
       </c>
@@ -1936,7 +1945,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>48</v>
       </c>
@@ -1953,7 +1962,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>50</v>
       </c>
@@ -1970,7 +1979,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>52</v>
       </c>
@@ -1987,7 +1996,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>54</v>
       </c>
@@ -2007,19 +2016,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="10.8" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.90625" defaultRowHeight="10.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="3.88671875" style="1"/>
+    <col min="1" max="16384" width="3.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2051,7 +2060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -2077,7 +2086,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -2103,7 +2112,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -2129,7 +2138,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>8</v>
       </c>
@@ -2155,7 +2164,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>10</v>
       </c>
@@ -2181,7 +2190,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>12</v>
       </c>
@@ -2207,7 +2216,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>14</v>
       </c>
@@ -2236,7 +2245,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>16</v>
       </c>
@@ -2265,7 +2274,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>18</v>
       </c>
@@ -2294,7 +2303,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>20</v>
       </c>
@@ -2323,7 +2332,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>22</v>
       </c>
@@ -2355,7 +2364,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>24</v>
       </c>
@@ -2384,7 +2393,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>26</v>
       </c>
@@ -2413,7 +2422,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>28</v>
       </c>
@@ -2442,7 +2451,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>30</v>
       </c>
@@ -2471,7 +2480,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>32</v>
       </c>
@@ -2503,7 +2512,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>34</v>
       </c>
@@ -2532,7 +2541,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>36</v>
       </c>
@@ -2564,7 +2573,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>38</v>
       </c>
@@ -2596,7 +2605,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>40</v>
       </c>
@@ -2628,7 +2637,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>42</v>
       </c>
@@ -2660,7 +2669,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44</v>
       </c>
@@ -2689,7 +2698,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>46</v>
       </c>
@@ -2706,7 +2715,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>48</v>
       </c>
@@ -2723,7 +2732,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>50</v>
       </c>
@@ -2740,7 +2749,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>52</v>
       </c>
@@ -2757,7 +2766,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>54</v>
       </c>
@@ -2777,19 +2786,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="10.8" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.90625" defaultRowHeight="10.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="3.88671875" style="1"/>
+    <col min="1" max="16384" width="3.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2821,7 +2830,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -2847,7 +2856,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -2873,7 +2882,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -2899,7 +2908,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>8</v>
       </c>
@@ -2925,7 +2934,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>10</v>
       </c>
@@ -2951,7 +2960,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>12</v>
       </c>
@@ -2977,7 +2986,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>14</v>
       </c>
@@ -3006,7 +3015,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>16</v>
       </c>
@@ -3035,7 +3044,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>18</v>
       </c>
@@ -3064,7 +3073,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>20</v>
       </c>
@@ -3093,7 +3102,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>22</v>
       </c>
@@ -3125,7 +3134,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>24</v>
       </c>
@@ -3154,7 +3163,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>26</v>
       </c>
@@ -3183,7 +3192,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>28</v>
       </c>
@@ -3212,7 +3221,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>30</v>
       </c>
@@ -3241,7 +3250,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>32</v>
       </c>
@@ -3273,7 +3282,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>34</v>
       </c>
@@ -3302,7 +3311,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>36</v>
       </c>
@@ -3334,7 +3343,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>38</v>
       </c>
@@ -3366,7 +3375,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>40</v>
       </c>
@@ -3398,7 +3407,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>42</v>
       </c>
@@ -3430,7 +3439,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44</v>
       </c>
@@ -3459,7 +3468,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>46</v>
       </c>
@@ -3476,7 +3485,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>48</v>
       </c>
@@ -3493,7 +3502,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>50</v>
       </c>
@@ -3510,7 +3519,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>52</v>
       </c>
@@ -3527,7 +3536,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>54</v>
       </c>
@@ -3547,19 +3556,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="10.8" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.90625" defaultRowHeight="10.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="3.88671875" style="1"/>
+    <col min="1" max="16384" width="3.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3591,7 +3600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -3617,7 +3626,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -3643,7 +3652,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -3669,7 +3678,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>8</v>
       </c>
@@ -3695,7 +3704,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>10</v>
       </c>
@@ -3721,7 +3730,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>12</v>
       </c>
@@ -3747,7 +3756,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>14</v>
       </c>
@@ -3776,7 +3785,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>16</v>
       </c>
@@ -3805,7 +3814,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>18</v>
       </c>
@@ -3834,7 +3843,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>20</v>
       </c>
@@ -3863,7 +3872,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>22</v>
       </c>
@@ -3895,7 +3904,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>24</v>
       </c>
@@ -3924,7 +3933,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>26</v>
       </c>
@@ -3953,7 +3962,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>28</v>
       </c>
@@ -3982,7 +3991,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>30</v>
       </c>
@@ -4011,7 +4020,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>32</v>
       </c>
@@ -4043,7 +4052,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>34</v>
       </c>
@@ -4072,7 +4081,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>36</v>
       </c>
@@ -4104,7 +4113,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>38</v>
       </c>
@@ -4136,7 +4145,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>40</v>
       </c>
@@ -4168,7 +4177,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>42</v>
       </c>
@@ -4200,7 +4209,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44</v>
       </c>
@@ -4229,7 +4238,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>46</v>
       </c>
@@ -4246,7 +4255,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>48</v>
       </c>
@@ -4263,7 +4272,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>50</v>
       </c>
@@ -4280,7 +4289,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>52</v>
       </c>
@@ -4297,7 +4306,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>54</v>
       </c>
@@ -4317,19 +4326,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="10.8" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.90625" defaultRowHeight="10.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="3.88671875" style="1"/>
+    <col min="1" max="16384" width="3.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4361,7 +4370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -4387,7 +4396,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -4413,7 +4422,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -4439,7 +4448,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>8</v>
       </c>
@@ -4465,7 +4474,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>10</v>
       </c>
@@ -4491,7 +4500,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>12</v>
       </c>
@@ -4517,7 +4526,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>14</v>
       </c>
@@ -4546,7 +4555,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>16</v>
       </c>
@@ -4575,7 +4584,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>18</v>
       </c>
@@ -4604,7 +4613,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>20</v>
       </c>
@@ -4633,7 +4642,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>22</v>
       </c>
@@ -4665,7 +4674,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>24</v>
       </c>
@@ -4694,7 +4703,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>26</v>
       </c>
@@ -4723,7 +4732,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>28</v>
       </c>
@@ -4752,7 +4761,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>30</v>
       </c>
@@ -4781,7 +4790,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>32</v>
       </c>
@@ -4813,7 +4822,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>34</v>
       </c>
@@ -4842,7 +4851,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>36</v>
       </c>
@@ -4874,7 +4883,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>38</v>
       </c>
@@ -4906,7 +4915,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>40</v>
       </c>
@@ -4938,7 +4947,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>42</v>
       </c>
@@ -4970,7 +4979,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44</v>
       </c>
@@ -4999,7 +5008,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>46</v>
       </c>
@@ -5016,7 +5025,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>48</v>
       </c>
@@ -5033,7 +5042,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>50</v>
       </c>
@@ -5050,7 +5059,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>52</v>
       </c>
@@ -5067,7 +5076,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>54</v>
       </c>
@@ -5087,19 +5096,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.88671875" defaultRowHeight="10.8" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.90625" defaultRowHeight="10.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="3.88671875" style="1"/>
+    <col min="1" max="16384" width="3.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5131,7 +5140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -5157,7 +5166,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>4</v>
       </c>
@@ -5183,7 +5192,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>6</v>
       </c>
@@ -5209,7 +5218,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>8</v>
       </c>
@@ -5235,7 +5244,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>10</v>
       </c>
@@ -5261,7 +5270,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>12</v>
       </c>
@@ -5287,7 +5296,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>14</v>
       </c>
@@ -5316,7 +5325,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>16</v>
       </c>
@@ -5345,7 +5354,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>18</v>
       </c>
@@ -5374,7 +5383,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>20</v>
       </c>
@@ -5403,7 +5412,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>22</v>
       </c>
@@ -5435,7 +5444,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>24</v>
       </c>
@@ -5464,7 +5473,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>26</v>
       </c>
@@ -5493,7 +5502,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>28</v>
       </c>
@@ -5522,7 +5531,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>30</v>
       </c>
@@ -5551,7 +5560,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>32</v>
       </c>
@@ -5583,7 +5592,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>34</v>
       </c>
@@ -5612,7 +5621,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>36</v>
       </c>
@@ -5644,7 +5653,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>38</v>
       </c>
@@ -5676,7 +5685,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>40</v>
       </c>
@@ -5708,7 +5717,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>42</v>
       </c>
@@ -5740,7 +5749,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44</v>
       </c>
@@ -5769,7 +5778,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>46</v>
       </c>
@@ -5786,7 +5795,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>48</v>
       </c>
@@ -5803,7 +5812,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>50</v>
       </c>
@@ -5820,7 +5829,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>52</v>
       </c>
@@ -5837,7 +5846,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="10.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="10.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>54</v>
       </c>
